--- a/Documentatie/KT1/Use Case Templates.xlsx
+++ b/Documentatie/KT1/Use Case Templates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
   <si>
     <t>Naam</t>
   </si>
@@ -40,6 +40,113 @@
   </si>
   <si>
     <t>Postconditie</t>
+  </si>
+  <si>
+    <t>Inloggen</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Admin, Gebruiker, Database</t>
+  </si>
+  <si>
+    <t>De gebruiker logt in met hun gebruikersnaam en wachtwoord en drukt op Enter.
+Mocht de gebruiker nog geen account hebben, dan kunnen ze op registreren klikken en daarmee een nieuw account aanmaken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De applicatie is geopent en start bij het inlogscherm. </t>
+  </si>
+  <si>
+    <t>De gebruiker heeft geen account.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>De gebruiker is ingelogd.</t>
+  </si>
+  <si>
+    <t>Bekijken Gebruiker</t>
+  </si>
+  <si>
+    <t>De admin is ingelogd in het systeem, en er zijn meerdere gebruikers in de database geregistreerd. 
+De gebruikers hebben ook al verschillende taken al staan in hun database.</t>
+  </si>
+  <si>
+    <t>De gebruikers hebben geen taken toegevoegd in de database.</t>
+  </si>
+  <si>
+    <t>De Admin heeft de nodige informatie gekeken en weet nu wat de voortgang is van de gebruiker.</t>
+  </si>
+  <si>
+    <t>Taken Toevoegen</t>
+  </si>
+  <si>
+    <t>De Admin heeft toegang tot de gehele database van alle gebruikers, 
+Hiermee kan de admin naar een gebruiker zoeken en daarmee de taken bekijken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De gebruiker klikt op een cel in de diagram, een popup verschijnt 
+waarin je de titel en duur van de taak kan invoeren. </t>
+  </si>
+  <si>
+    <t>geen</t>
+  </si>
+  <si>
+    <t>Taken Wijzigen</t>
+  </si>
+  <si>
+    <t>De gebruiker klikt op een cel in de diagram, een popup verschijnt waarin je de titel en duur van de taak kan wijzigen, de naam en duur van de tabel staan nog steeds aanwezig.</t>
+  </si>
+  <si>
+    <t>Taak verwijderen.</t>
+  </si>
+  <si>
+    <t>Admin, gebruiker, database.</t>
+  </si>
+  <si>
+    <t>Admin, gebruiker, database</t>
+  </si>
+  <si>
+    <t>Admin, database</t>
+  </si>
+  <si>
+    <t>De gebruiker klikt op een taak, een popup verschijnt waar je normaal de taak kan wijzigen, 
+de gebruiker klikt op de rode knop om de taak te verwijderen.</t>
+  </si>
+  <si>
+    <t>De pop-up is gesloten en de taak is verwijderd.</t>
+  </si>
+  <si>
+    <t>De popup is gesloten en de taak is gewijzigt.</t>
+  </si>
+  <si>
+    <t>Uitloggen</t>
+  </si>
+  <si>
+    <t>de gebruiker is uitgelogd.</t>
+  </si>
+  <si>
+    <t>De gebruiker klikt op de uitlog knop nadat hij klaar is met zijn bezigheden.</t>
+  </si>
+  <si>
+    <t>De gebruiker is ingelogd op zijn bestaande account.</t>
+  </si>
+  <si>
+    <t>De gebruiker is ingelogd op zijn bestaande account in de applicatie. 
+En voor hem staat de wekelijkse tabel.</t>
+  </si>
+  <si>
+    <t>De cel word van kleur veranderd en verschijnt de taak in de tabel, 
+de taak is toegevoegd.</t>
+  </si>
+  <si>
+    <t>De gebruiker is ingelogd op zijn bestaande account in de applicatie, 
+en in de tabel zijn taken aanwezig.</t>
+  </si>
+  <si>
+    <t>Er bestaat geen taak</t>
   </si>
 </sst>
 </file>
@@ -83,9 +190,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -387,57 +502,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D9:D16"/>
+  <dimension ref="B2:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
